--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hc-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hc-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Hc</t>
+  </si>
+  <si>
+    <t>C5ar2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Hc</t>
-  </si>
-  <si>
-    <t>C5ar2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +546,10 @@
         <v>0.099495</v>
       </c>
       <c r="I2">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,16 +558,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03770933333333333</v>
+        <v>0.03770933333333334</v>
       </c>
       <c r="N2">
         <v>0.113128</v>
       </c>
       <c r="O2">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="P2">
-        <v>0.002153323738599274</v>
+        <v>0.002312114438955196</v>
       </c>
       <c r="Q2">
         <v>0.00125063004</v>
@@ -576,10 +576,10 @@
         <v>0.01125567036</v>
       </c>
       <c r="S2">
-        <v>0.001252462281270993</v>
+        <v>0.002312114438955197</v>
       </c>
       <c r="T2">
-        <v>0.001252462281270993</v>
+        <v>0.002312114438955196</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>0.099495</v>
       </c>
       <c r="I3">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.2240396666666667</v>
+        <v>0.2240396666666666</v>
       </c>
       <c r="N3">
-        <v>0.672119</v>
+        <v>0.6721189999999999</v>
       </c>
       <c r="O3">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="P3">
-        <v>0.01279338269803767</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="Q3">
-        <v>0.007430275545</v>
+        <v>0.007430275544999999</v>
       </c>
       <c r="R3">
-        <v>0.066872479905</v>
+        <v>0.06687247990499999</v>
       </c>
       <c r="S3">
-        <v>0.00744116130423572</v>
+        <v>0.01373679411459698</v>
       </c>
       <c r="T3">
-        <v>0.007441161304235719</v>
+        <v>0.01373679411459698</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -670,10 +670,10 @@
         <v>0.099495</v>
       </c>
       <c r="I4">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.854348333333333</v>
+        <v>8.868391666666668</v>
       </c>
       <c r="N4">
-        <v>23.563045</v>
+        <v>26.605175</v>
       </c>
       <c r="O4">
-        <v>0.4485084519498527</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="P4">
-        <v>0.4485084519498526</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="Q4">
-        <v>0.260489462475</v>
+        <v>0.294120209625</v>
       </c>
       <c r="R4">
-        <v>2.344405162275</v>
+        <v>2.647081886625</v>
       </c>
       <c r="S4">
-        <v>0.2608710937556667</v>
+        <v>0.5437575955415973</v>
       </c>
       <c r="T4">
-        <v>0.2608710937556666</v>
+        <v>0.5437575955415973</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -732,10 +732,10 @@
         <v>0.099495</v>
       </c>
       <c r="I5">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.013214</v>
+        <v>0.03881966666666666</v>
       </c>
       <c r="N5">
-        <v>0.039642</v>
+        <v>0.116459</v>
       </c>
       <c r="O5">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="P5">
-        <v>0.0007545617322462382</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="Q5">
-        <v>0.00043824231</v>
+        <v>0.001287454245</v>
       </c>
       <c r="R5">
-        <v>0.003944180790000001</v>
+        <v>0.011587088205</v>
       </c>
       <c r="S5">
-        <v>0.0004388843589044685</v>
+        <v>0.002380193545773665</v>
       </c>
       <c r="T5">
-        <v>0.0004388843589044684</v>
+        <v>0.002380193545773665</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,10 +794,10 @@
         <v>0.099495</v>
       </c>
       <c r="I6">
-        <v>0.5816414219655207</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.5816414219655206</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.382840999999999</v>
+        <v>7.140497666666666</v>
       </c>
       <c r="N6">
-        <v>28.148523</v>
+        <v>21.421493</v>
       </c>
       <c r="O6">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="P6">
-        <v>0.5357902798812642</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="Q6">
-        <v>0.311181921765</v>
+        <v>0.236814605115</v>
       </c>
       <c r="R6">
-        <v>2.800637295885</v>
+        <v>2.131331446035</v>
       </c>
       <c r="S6">
-        <v>0.3116378202654428</v>
+        <v>0.437813302359077</v>
       </c>
       <c r="T6">
-        <v>0.3116378202654427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.071564</v>
-      </c>
-      <c r="I7">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J7">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.03770933333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.113128</v>
-      </c>
-      <c r="O7">
-        <v>0.002153323738599274</v>
-      </c>
-      <c r="P7">
-        <v>0.002153323738599274</v>
-      </c>
-      <c r="Q7">
-        <v>0.0008995435768888888</v>
-      </c>
-      <c r="R7">
-        <v>0.008095892192</v>
-      </c>
-      <c r="S7">
-        <v>0.0009008614573282812</v>
-      </c>
-      <c r="T7">
-        <v>0.0009008614573282811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.071564</v>
-      </c>
-      <c r="I8">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J8">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.2240396666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.672119</v>
-      </c>
-      <c r="O8">
-        <v>0.01279338269803767</v>
-      </c>
-      <c r="P8">
-        <v>0.01279338269803767</v>
-      </c>
-      <c r="Q8">
-        <v>0.005344391568444445</v>
-      </c>
-      <c r="R8">
-        <v>0.04809952411600001</v>
-      </c>
-      <c r="S8">
-        <v>0.00535222139380195</v>
-      </c>
-      <c r="T8">
-        <v>0.00535222139380195</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.071564</v>
-      </c>
-      <c r="I9">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J9">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>7.854348333333333</v>
-      </c>
-      <c r="N9">
-        <v>23.563045</v>
-      </c>
-      <c r="O9">
-        <v>0.4485084519498527</v>
-      </c>
-      <c r="P9">
-        <v>0.4485084519498526</v>
-      </c>
-      <c r="Q9">
-        <v>0.1873628613755556</v>
-      </c>
-      <c r="R9">
-        <v>1.68626575238</v>
-      </c>
-      <c r="S9">
-        <v>0.187637358194186</v>
-      </c>
-      <c r="T9">
-        <v>0.1876373581941859</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.071564</v>
-      </c>
-      <c r="I10">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J10">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.013214</v>
-      </c>
-      <c r="N10">
-        <v>0.039642</v>
-      </c>
-      <c r="O10">
-        <v>0.0007545617322462382</v>
-      </c>
-      <c r="P10">
-        <v>0.0007545617322462382</v>
-      </c>
-      <c r="Q10">
-        <v>0.0003152155653333334</v>
-      </c>
-      <c r="R10">
-        <v>0.002836940088000001</v>
-      </c>
-      <c r="S10">
-        <v>0.0003156773733417698</v>
-      </c>
-      <c r="T10">
-        <v>0.0003156773733417697</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.02385466666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.071564</v>
-      </c>
-      <c r="I11">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="J11">
-        <v>0.4183585780344793</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>9.382840999999999</v>
-      </c>
-      <c r="N11">
-        <v>28.148523</v>
-      </c>
-      <c r="O11">
-        <v>0.5357902798812642</v>
-      </c>
-      <c r="P11">
-        <v>0.5357902798812642</v>
-      </c>
-      <c r="Q11">
-        <v>0.2238245444413333</v>
-      </c>
-      <c r="R11">
-        <v>2.014420899972</v>
-      </c>
-      <c r="S11">
-        <v>0.2241524596158214</v>
-      </c>
-      <c r="T11">
-        <v>0.2241524596158213</v>
+        <v>0.437813302359077</v>
       </c>
     </row>
   </sheetData>
